--- a/resources/basic_schema_for_non_institutional_account_upload.xlsx
+++ b/resources/basic_schema_for_non_institutional_account_upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Internal ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">Files</t>
   </si>
   <si>
+    <t xml:space="preserve">License</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHOULD BE DISCARDED</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">eye.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC0</t>
   </si>
 </sst>
 </file>
@@ -166,12 +172,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -181,13 +187,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.59"/>
@@ -228,34 +234,40 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/resources/basic_schema_for_non_institutional_account_upload.xlsx
+++ b/resources/basic_schema_for_non_institutional_account_upload.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">David Banks</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure</t>
+    <t xml:space="preserve">Online Resource</t>
   </si>
   <si>
     <t xml:space="preserve">eye.jpg</t>
@@ -183,17 +183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.59"/>
@@ -203,7 +203,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/resources/basic_schema_for_non_institutional_account_upload.xlsx
+++ b/resources/basic_schema_for_non_institutional_account_upload.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">http://www.solasistim.net/</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Software</t>
+    <t xml:space="preserve">Computer Software, Biochemistry</t>
   </si>
   <si>
     <t xml:space="preserve">David Banks</t>
@@ -183,17 +183,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.59"/>
@@ -203,7 +203,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/resources/basic_schema_for_non_institutional_account_upload.xlsx
+++ b/resources/basic_schema_for_non_institutional_account_upload.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">http://www.solasistim.net/</t>
   </si>
   <si>
-    <t xml:space="preserve">Computer Software, Biochemistry</t>
+    <t xml:space="preserve">Networking and communications, Digital curation and preservation</t>
   </si>
   <si>
     <t xml:space="preserve">David Banks</t>
@@ -193,7 +193,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.59"/>
